--- a/data/trans_orig/P15B_3_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27C6EB77-088A-48D5-A840-943C4DFBC83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF32E66F-26B8-4544-9A3F-517613501B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2328C453-32A0-4CE1-8A76-B97B38618835}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{674D4E12-4109-4AEE-908B-D99F083BB980}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="568">
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>51,16%</t>
   </si>
   <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -95,10 +95,10 @@
     <t>29,02%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,10 +107,10 @@
     <t>48,84%</t>
   </si>
   <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>70,98%</t>
   </si>
   <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -140,13 +140,13 @@
     <t>21,88%</t>
   </si>
   <si>
-    <t>56,27%</t>
+    <t>56,4%</t>
   </si>
   <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>34,6%</t>
+    <t>35,75%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -155,13 +155,13 @@
     <t>78,12%</t>
   </si>
   <si>
-    <t>43,73%</t>
+    <t>43,6%</t>
   </si>
   <si>
     <t>88,34%</t>
   </si>
   <si>
-    <t>65,4%</t>
+    <t>64,25%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -170,1567 +170,1579 @@
     <t>16,13%</t>
   </si>
   <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el trabajo en el último año en 2012 (Tasa respuesta: 7,9%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el trabajo en el último año en 2015 (Tasa respuesta: 5,53%)</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>95,29%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el trabajo en el último año en 2012 (Tasa respuesta: 7,9%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el trabajo en el último año en 2015 (Tasa respuesta: 5,53%)</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
 </sst>
 </file>
@@ -2142,7 +2154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A323D5-FD8A-4751-92AC-4A037A1C252E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA19AB6-A485-45BE-B3CA-82E0553C2722}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2579,10 +2591,10 @@
         <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2597,7 +2609,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2606,13 +2618,13 @@
         <v>2941</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,13 +2639,13 @@
         <v>15288</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -2645,7 +2657,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -2657,13 +2669,13 @@
         <v>19493</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,7 +2731,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2731,13 +2743,13 @@
         <v>4832</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2752,7 +2764,7 @@
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2761,13 +2773,13 @@
         <v>4832</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,13 +2794,13 @@
         <v>12986</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -2800,7 +2812,7 @@
         <v>24</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -2812,13 +2824,13 @@
         <v>22779</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,7 +2886,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2886,13 +2898,13 @@
         <v>3143</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2901,13 +2913,13 @@
         <v>1020</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2916,13 +2928,13 @@
         <v>4162</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,13 +2949,13 @@
         <v>4176</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2952,10 +2964,10 @@
         <v>6786</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -2967,13 +2979,13 @@
         <v>10963</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,7 +3041,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3041,13 +3053,13 @@
         <v>5961</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3056,13 +3068,13 @@
         <v>1030</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -3071,13 +3083,13 @@
         <v>6991</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3104,13 @@
         <v>2932</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -3107,10 +3119,10 @@
         <v>9572</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -3122,13 +3134,13 @@
         <v>12504</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,7 +3196,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3196,13 +3208,13 @@
         <v>10528</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3211,13 +3223,13 @@
         <v>4330</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -3226,13 +3238,13 @@
         <v>14858</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,13 +3259,13 @@
         <v>16756</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -3262,13 +3274,13 @@
         <v>14085</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -3277,13 +3289,13 @@
         <v>30842</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,7 +3351,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3351,13 +3363,13 @@
         <v>7335</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3366,13 +3378,13 @@
         <v>1146</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -3381,13 +3393,13 @@
         <v>8480</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3414,13 @@
         <v>19054</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -3417,10 +3429,10 @@
         <v>25787</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>24</v>
@@ -3432,13 +3444,13 @@
         <v>44842</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,13 +3518,13 @@
         <v>39493</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -3521,13 +3533,13 @@
         <v>9488</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M28" s="7">
         <v>47</v>
@@ -3536,13 +3548,13 @@
         <v>48980</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3569,13 @@
         <v>83584</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -3572,13 +3584,13 @@
         <v>84318</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M29" s="7">
         <v>162</v>
@@ -3587,13 +3599,13 @@
         <v>167903</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,7 +3661,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3673,7 +3685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E2C6AA-B003-4130-A3D8-AADEF22F7615}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC253C31-D117-46A0-A842-2DB80BCD69DD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3690,7 +3702,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3795,39 +3807,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,39 +3852,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,39 +3897,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3946,13 @@
         <v>2841</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3955,7 +3967,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3964,13 +3976,13 @@
         <v>2841</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3997,13 @@
         <v>29187</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -4003,7 +4015,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -4015,13 +4027,13 @@
         <v>59443</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4101,13 @@
         <v>12427</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4110,7 +4122,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -4119,13 +4131,13 @@
         <v>12427</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4152,13 @@
         <v>40426</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -4158,7 +4170,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -4170,13 +4182,13 @@
         <v>81337</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,7 +4244,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4244,13 +4256,13 @@
         <v>6006</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4259,13 +4271,13 @@
         <v>1975</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -4274,13 +4286,13 @@
         <v>7981</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4307,13 @@
         <v>62798</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -4310,10 +4322,10 @@
         <v>43085</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>24</v>
@@ -4325,13 +4337,13 @@
         <v>105883</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,7 +4399,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4399,13 +4411,13 @@
         <v>4030</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4420,7 +4432,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4429,13 +4441,13 @@
         <v>4031</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4462,13 @@
         <v>9142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -4468,7 +4480,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -4480,13 +4492,13 @@
         <v>28940</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,7 +4554,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4554,13 +4566,13 @@
         <v>6720</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -4569,13 +4581,13 @@
         <v>3692</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -4584,13 +4596,13 @@
         <v>10412</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4617,13 @@
         <v>23631</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -4620,13 +4632,13 @@
         <v>31723</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M20" s="7">
         <v>52</v>
@@ -4635,13 +4647,13 @@
         <v>55354</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,7 +4709,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4709,13 +4721,13 @@
         <v>27954</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -4724,13 +4736,13 @@
         <v>4616</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -4739,13 +4751,13 @@
         <v>32570</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4772,13 @@
         <v>37797</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H23" s="7">
         <v>51</v>
@@ -4775,13 +4787,13 @@
         <v>54036</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M23" s="7">
         <v>87</v>
@@ -4790,13 +4802,13 @@
         <v>91833</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,7 +4864,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4864,13 +4876,13 @@
         <v>2217</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -4879,13 +4891,13 @@
         <v>3164</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4894,13 +4906,13 @@
         <v>5381</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,10 +4927,10 @@
         <v>21796</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>24</v>
@@ -4930,10 +4942,10 @@
         <v>22149</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>257</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>24</v>
@@ -4945,13 +4957,13 @@
         <v>43945</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5031,13 @@
         <v>62196</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -5034,13 +5046,13 @@
         <v>13446</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M28" s="7">
         <v>73</v>
@@ -5049,13 +5061,13 @@
         <v>75642</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5082,13 @@
         <v>224776</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H29" s="7">
         <v>228</v>
@@ -5085,13 +5097,13 @@
         <v>241959</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M29" s="7">
         <v>441</v>
@@ -5100,13 +5112,13 @@
         <v>466735</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,7 +5174,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5186,7 +5198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C82886-679F-454E-BC01-F5328085B5AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA16723-27FC-4A2F-9A05-E610F0CAA52C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5203,7 +5215,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5310,13 +5322,13 @@
         <v>4509</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5325,13 +5337,13 @@
         <v>6150</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -5340,13 +5352,13 @@
         <v>10660</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5373,13 @@
         <v>14697</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -5376,13 +5388,13 @@
         <v>24038</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -5391,13 +5403,13 @@
         <v>38734</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5477,13 @@
         <v>3067</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5480,13 +5492,13 @@
         <v>1986</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -5495,13 +5507,13 @@
         <v>5054</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5528,13 @@
         <v>15290</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -5531,10 +5543,10 @@
         <v>13892</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -5546,13 +5558,13 @@
         <v>29181</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,13 +5632,13 @@
         <v>3479</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5641,7 +5653,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5650,13 +5662,13 @@
         <v>3479</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,13 +5683,13 @@
         <v>19752</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -5689,7 +5701,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5701,13 +5713,13 @@
         <v>33633</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,7 +5775,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5775,13 +5787,13 @@
         <v>5480</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5790,13 +5802,13 @@
         <v>2823</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5805,13 +5817,13 @@
         <v>8303</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5838,13 @@
         <v>32912</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5841,13 +5853,13 @@
         <v>33548</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -5856,13 +5868,13 @@
         <v>66460</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,7 +5930,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5930,13 +5942,13 @@
         <v>2836</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5945,13 +5957,13 @@
         <v>1053</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5960,13 +5972,13 @@
         <v>3889</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,10 +5993,10 @@
         <v>7288</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>357</v>
@@ -6073,7 +6085,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6228,7 +6240,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6383,7 +6395,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6410,13 +6422,13 @@
         <v>1080</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>318</v>
+        <v>395</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -6425,13 +6437,13 @@
         <v>3050</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,10 +6458,10 @@
         <v>32636</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>24</v>
@@ -6461,10 +6473,10 @@
         <v>25656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>326</v>
+        <v>402</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>24</v>
@@ -6476,13 +6488,13 @@
         <v>58292</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6562,13 @@
         <v>29542</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -6565,13 +6577,13 @@
         <v>14118</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M28" s="7">
         <v>42</v>
@@ -6580,13 +6592,13 @@
         <v>43660</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,13 +6613,13 @@
         <v>168227</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H29" s="7">
         <v>158</v>
@@ -6616,13 +6628,13 @@
         <v>177335</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M29" s="7">
         <v>321</v>
@@ -6631,13 +6643,13 @@
         <v>345563</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,7 +6705,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -6717,7 +6729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FC8691-E81B-44B7-848C-7E81ACBDA821}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E56F5CF-9AD2-49C2-97C4-E029B4A30098}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6734,7 +6746,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6841,13 +6853,13 @@
         <v>2916</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -6856,13 +6868,13 @@
         <v>2820</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -6871,13 +6883,13 @@
         <v>5736</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,13 +6904,13 @@
         <v>20531</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -6907,13 +6919,13 @@
         <v>25241</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M5" s="7">
         <v>78</v>
@@ -6922,13 +6934,13 @@
         <v>45772</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6996,13 +7008,13 @@
         <v>5660</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -7017,7 +7029,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -7026,13 +7038,13 @@
         <v>5660</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,13 +7059,13 @@
         <v>18973</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H8" s="7">
         <v>48</v>
@@ -7065,7 +7077,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -7077,13 +7089,13 @@
         <v>55419</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,13 +7163,13 @@
         <v>4927</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>321</v>
+        <v>459</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -7166,13 +7178,13 @@
         <v>3507</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>290</v>
+        <v>461</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -7181,13 +7193,13 @@
         <v>8434</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7202,13 +7214,13 @@
         <v>16905</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>328</v>
+        <v>469</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -7217,13 +7229,13 @@
         <v>25495</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -7232,13 +7244,13 @@
         <v>42400</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7294,7 +7306,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7306,13 +7318,13 @@
         <v>10738</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -7321,13 +7333,13 @@
         <v>796</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -7336,13 +7348,13 @@
         <v>11535</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,13 +7369,13 @@
         <v>14055</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -7372,10 +7384,10 @@
         <v>19246</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>24</v>
@@ -7387,13 +7399,13 @@
         <v>33301</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,7 +7461,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7461,13 +7473,13 @@
         <v>1003</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7482,7 +7494,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7491,13 +7503,13 @@
         <v>1003</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7512,10 +7524,10 @@
         <v>7043</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
@@ -7530,7 +7542,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -7542,10 +7554,10 @@
         <v>7697</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>24</v>
@@ -7604,7 +7616,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7616,13 +7628,13 @@
         <v>7546</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -7631,13 +7643,13 @@
         <v>584</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -7646,13 +7658,13 @@
         <v>8130</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7667,13 +7679,13 @@
         <v>19381</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="H20" s="7">
         <v>62</v>
@@ -7682,10 +7694,10 @@
         <v>28444</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>508</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -7697,13 +7709,13 @@
         <v>47824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7759,7 +7771,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7771,13 +7783,13 @@
         <v>7028</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -7786,13 +7798,13 @@
         <v>5738</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -7801,13 +7813,13 @@
         <v>12766</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7822,13 +7834,13 @@
         <v>37364</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H23" s="7">
         <v>68</v>
@@ -7837,13 +7849,13 @@
         <v>48849</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="M23" s="7">
         <v>106</v>
@@ -7852,13 +7864,13 @@
         <v>86212</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7914,7 +7926,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7926,13 +7938,13 @@
         <v>8556</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -7941,13 +7953,13 @@
         <v>3845</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -7956,13 +7968,13 @@
         <v>12401</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7977,13 +7989,13 @@
         <v>21155</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H26" s="7">
         <v>41</v>
@@ -7992,13 +8004,13 @@
         <v>30612</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="M26" s="7">
         <v>59</v>
@@ -8007,13 +8019,13 @@
         <v>51768</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8081,13 +8093,13 @@
         <v>48374</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="H28" s="7">
         <v>22</v>
@@ -8096,13 +8108,13 @@
         <v>17291</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="M28" s="7">
         <v>63</v>
@@ -8111,13 +8123,13 @@
         <v>65666</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8132,13 +8144,13 @@
         <v>155408</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H29" s="7">
         <v>337</v>
@@ -8147,13 +8159,13 @@
         <v>214986</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="M29" s="7">
         <v>507</v>
@@ -8162,13 +8174,13 @@
         <v>370393</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8224,7 +8236,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15B_3_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF32E66F-26B8-4544-9A3F-517613501B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B8CE67F-68A1-4AA8-AFF3-633A5F7EE865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{674D4E12-4109-4AEE-908B-D99F083BB980}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{91AE3A99-0A74-466C-8DB2-2872AFB6BD75}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="562">
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>51,16%</t>
   </si>
   <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -95,10 +95,10 @@
     <t>29,02%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,10 +107,10 @@
     <t>48,84%</t>
   </si>
   <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>70,98%</t>
   </si>
   <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -140,13 +140,13 @@
     <t>21,88%</t>
   </si>
   <si>
-    <t>56,4%</t>
+    <t>62,72%</t>
   </si>
   <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>35,75%</t>
+    <t>32,27%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -155,13 +155,13 @@
     <t>78,12%</t>
   </si>
   <si>
-    <t>43,6%</t>
+    <t>37,28%</t>
   </si>
   <si>
     <t>88,34%</t>
   </si>
   <si>
-    <t>64,25%</t>
+    <t>67,73%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -170,7 +170,10 @@
     <t>16,13%</t>
   </si>
   <si>
-    <t>37,39%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -179,16 +182,19 @@
     <t>13,11%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
   </si>
   <si>
     <t>83,87%</t>
   </si>
   <si>
-    <t>62,61%</t>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -197,10 +203,10 @@
     <t>86,89%</t>
   </si>
   <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -209,10 +215,10 @@
     <t>27,12%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -221,19 +227,19 @@
     <t>17,5%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
   </si>
   <si>
     <t>72,88%</t>
   </si>
   <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -242,10 +248,10 @@
     <t>82,5%</t>
   </si>
   <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -254,49 +260,49 @@
     <t>42,94%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
   </si>
   <si>
     <t>13,06%</t>
   </si>
   <si>
-    <t>57,08%</t>
+    <t>57,74%</t>
   </si>
   <si>
     <t>27,52%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
   </si>
   <si>
     <t>57,06%</t>
   </si>
   <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
   </si>
   <si>
     <t>86,94%</t>
   </si>
   <si>
-    <t>42,92%</t>
+    <t>42,26%</t>
   </si>
   <si>
     <t>72,48%</t>
   </si>
   <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -305,49 +311,49 @@
     <t>67,03%</t>
   </si>
   <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
   <si>
     <t>9,72%</t>
   </si>
   <si>
-    <t>48,68%</t>
+    <t>49,33%</t>
   </si>
   <si>
     <t>35,86%</t>
   </si>
   <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
   </si>
   <si>
     <t>32,97%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
   </si>
   <si>
     <t>90,28%</t>
   </si>
   <si>
-    <t>51,32%</t>
+    <t>50,67%</t>
   </si>
   <si>
     <t>64,14%</t>
   </si>
   <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -356,49 +362,55 @@
     <t>38,59%</t>
   </si>
   <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
   </si>
   <si>
     <t>23,51%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
   </si>
   <si>
     <t>32,51%</t>
   </si>
   <si>
-    <t>18,07%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
   </si>
   <si>
     <t>61,41%</t>
   </si>
   <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
   </si>
   <si>
     <t>76,49%</t>
   </si>
   <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
   </si>
   <si>
     <t>67,49%</t>
   </si>
   <si>
-    <t>81,93%</t>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -407,103 +419,103 @@
     <t>27,79%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>23,13%</t>
+    <t>21,05%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>95,75%</t>
   </si>
   <si>
-    <t>76,87%</t>
+    <t>78,95%</t>
   </si>
   <si>
     <t>84,1%</t>
   </si>
   <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>32,09%</t>
   </si>
   <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>22,58%</t>
   </si>
   <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
   </si>
   <si>
     <t>67,91%</t>
   </si>
   <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
   </si>
   <si>
     <t>77,42%</t>
   </si>
   <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -518,10 +530,10 @@
     <t>8,87%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -530,16 +542,19 @@
     <t>4,56%</t>
   </si>
   <si>
-    <t>12,32%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
   </si>
   <si>
     <t>93,43%</t>
@@ -548,13 +563,16 @@
     <t>95,44%</t>
   </si>
   <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
   </si>
   <si>
     <t>4,78%</t>
@@ -563,16 +581,16 @@
     <t>13,25%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
   </si>
   <si>
     <t>95,22%</t>
@@ -581,67 +599,67 @@
     <t>86,75%</t>
   </si>
   <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>13,73%</t>
+    <t>13,61%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>91,27%</t>
   </si>
   <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>95,62%</t>
   </si>
   <si>
-    <t>86,27%</t>
+    <t>86,39%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
   <si>
     <t>30,6%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -650,19 +668,19 @@
     <t>12,22%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
   </si>
   <si>
     <t>69,4%</t>
   </si>
   <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
   </si>
   <si>
     <t>90,51%</t>
@@ -671,328 +689,322 @@
     <t>87,78%</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>22,14%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
   </si>
   <si>
     <t>15,83%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
   </si>
   <si>
     <t>77,86%</t>
   </si>
   <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>84,17%</t>
   </si>
   <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
   </si>
   <si>
     <t>42,52%</t>
   </si>
   <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
   </si>
   <si>
     <t>7,87%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
   </si>
   <si>
     <t>26,18%</t>
   </si>
   <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
   </si>
   <si>
     <t>57,48%</t>
   </si>
   <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
   </si>
   <si>
     <t>92,13%</t>
   </si>
   <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>73,82%</t>
   </si>
   <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
   </si>
   <si>
     <t>12,5%</t>
   </si>
   <si>
-    <t>36,73%</t>
+    <t>36,66%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
   </si>
   <si>
     <t>87,5%</t>
   </si>
   <si>
-    <t>63,27%</t>
+    <t>63,34%</t>
   </si>
   <si>
     <t>89,09%</t>
   </si>
   <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
   </si>
   <si>
     <t>78,33%</t>
   </si>
   <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>94,74%</t>
   </si>
   <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>86,05%</t>
   </si>
   <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el trabajo en el último año en 2015 (Tasa respuesta: 5,53%)</t>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el trabajo en el último año en 2016 (Tasa respuesta: 5,53%)</t>
   </si>
   <si>
     <t>23,48%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
   </si>
   <si>
     <t>20,37%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
   </si>
   <si>
     <t>21,58%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
   </si>
   <si>
     <t>76,52%</t>
   </si>
   <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
   </si>
   <si>
     <t>79,63%</t>
   </si>
   <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>78,42%</t>
   </si>
   <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
   </si>
   <si>
     <t>16,71%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
   </si>
   <si>
     <t>12,51%</t>
   </si>
   <si>
-    <t>38,32%</t>
+    <t>39,88%</t>
   </si>
   <si>
     <t>14,76%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
   </si>
   <si>
     <t>83,29%</t>
   </si>
   <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
   </si>
   <si>
     <t>87,49%</t>
   </si>
   <si>
-    <t>61,68%</t>
+    <t>60,12%</t>
   </si>
   <si>
     <t>85,24%</t>
   </si>
   <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -1001,19 +1013,19 @@
     <t>9,37%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
   </si>
   <si>
     <t>85,02%</t>
   </si>
   <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -1022,10 +1034,10 @@
     <t>90,63%</t>
   </si>
   <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>14,27%</t>
@@ -1034,31 +1046,31 @@
     <t>4,95%</t>
   </si>
   <si>
-    <t>30,24%</t>
+    <t>28,26%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
   </si>
   <si>
     <t>85,73%</t>
   </si>
   <si>
-    <t>69,76%</t>
+    <t>71,74%</t>
   </si>
   <si>
     <t>95,05%</t>
@@ -1067,28 +1079,28 @@
     <t>92,24%</t>
   </si>
   <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>88,89%</t>
   </si>
   <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
   </si>
   <si>
     <t>23,22%</t>
@@ -1100,19 +1112,19 @@
     <t>26,53%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
   </si>
   <si>
     <t>71,99%</t>
   </si>
   <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>76,78%</t>
@@ -1124,10 +1136,10 @@
     <t>73,47%</t>
   </si>
   <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
   </si>
   <si>
     <t>14,45%</t>
@@ -1136,7 +1148,7 @@
     <t>3,59%</t>
   </si>
   <si>
-    <t>32,24%</t>
+    <t>31,24%</t>
   </si>
   <si>
     <t>5,78%</t>
@@ -1145,175 +1157,163 @@
     <t>6,2%</t>
   </si>
   <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
     <t>14,94%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
   </si>
   <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>92,63%</t>
   </si>
   <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>88,78%</t>
   </si>
   <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
   </si>
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
@@ -1589,12 +1589,6 @@
     <t>92,46%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
     <t>10,51%</t>
   </si>
   <si>
@@ -1613,12 +1607,6 @@
     <t>20,26%</t>
   </si>
   <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
     <t>89,49%</t>
   </si>
   <si>
@@ -1703,9 +1691,6 @@
     <t>7,44%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
     <t>12,0%</t>
   </si>
   <si>
@@ -1731,9 +1716,6 @@
   </si>
   <si>
     <t>88,0%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
   </si>
   <si>
     <t>84,94%</t>
@@ -2154,7 +2136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA19AB6-A485-45BE-B3CA-82E0553C2722}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748A19F4-9779-4D98-ACC0-49376BA72285}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2591,10 +2573,10 @@
         <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2609,7 +2591,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2618,13 +2600,13 @@
         <v>2941</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2621,13 @@
         <v>15288</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -2657,7 +2639,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -2669,13 +2651,13 @@
         <v>19493</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,7 +2713,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2743,13 +2725,13 @@
         <v>4832</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2764,7 +2746,7 @@
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2773,13 +2755,13 @@
         <v>4832</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,13 +2776,13 @@
         <v>12986</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -2812,7 +2794,7 @@
         <v>24</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -2824,13 +2806,13 @@
         <v>22779</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,7 +2868,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2898,13 +2880,13 @@
         <v>3143</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2913,13 +2895,13 @@
         <v>1020</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2928,13 +2910,13 @@
         <v>4162</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,13 +2931,13 @@
         <v>4176</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2964,10 +2946,10 @@
         <v>6786</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -2979,13 +2961,13 @@
         <v>10963</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,7 +3023,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3053,13 +3035,13 @@
         <v>5961</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3068,13 +3050,13 @@
         <v>1030</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -3083,13 +3065,13 @@
         <v>6991</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3086,13 @@
         <v>2932</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -3119,10 +3101,10 @@
         <v>9572</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -3134,13 +3116,13 @@
         <v>12504</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,7 +3178,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3208,13 +3190,13 @@
         <v>10528</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3223,13 +3205,13 @@
         <v>4330</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -3238,13 +3220,13 @@
         <v>14858</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3241,13 @@
         <v>16756</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -3274,13 +3256,13 @@
         <v>14085</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -3289,13 +3271,13 @@
         <v>30842</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,7 +3333,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3363,13 +3345,13 @@
         <v>7335</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3378,13 +3360,13 @@
         <v>1146</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -3393,13 +3375,13 @@
         <v>8480</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3396,13 @@
         <v>19054</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -3429,10 +3411,10 @@
         <v>25787</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>24</v>
@@ -3444,13 +3426,13 @@
         <v>44842</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3500,13 @@
         <v>39493</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -3533,13 +3515,13 @@
         <v>9488</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M28" s="7">
         <v>47</v>
@@ -3548,13 +3530,13 @@
         <v>48980</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,13 +3551,13 @@
         <v>83584</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -3584,13 +3566,13 @@
         <v>84318</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M29" s="7">
         <v>162</v>
@@ -3599,13 +3581,13 @@
         <v>167903</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,7 +3643,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3685,7 +3667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC253C31-D117-46A0-A842-2DB80BCD69DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73736D61-8D48-4373-BC6C-35BA53A87911}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3702,7 +3684,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3807,39 +3789,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,39 +3834,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,39 +3879,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3928,13 @@
         <v>2841</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3967,7 +3949,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3976,13 +3958,13 @@
         <v>2841</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +3979,13 @@
         <v>29187</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -4015,7 +3997,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -4027,13 +4009,13 @@
         <v>59443</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4083,13 @@
         <v>12427</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4122,7 +4104,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -4131,13 +4113,13 @@
         <v>12427</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4134,13 @@
         <v>40426</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -4170,7 +4152,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -4182,13 +4164,13 @@
         <v>81337</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,7 +4226,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4256,13 +4238,13 @@
         <v>6006</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4271,13 +4253,13 @@
         <v>1975</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -4286,13 +4268,13 @@
         <v>7981</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4289,13 @@
         <v>62798</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -4322,10 +4304,10 @@
         <v>43085</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>24</v>
@@ -4337,13 +4319,13 @@
         <v>105883</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,7 +4381,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4411,13 +4393,13 @@
         <v>4030</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4432,7 +4414,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4441,13 +4423,13 @@
         <v>4031</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4444,13 @@
         <v>9142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -4480,7 +4462,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -4492,13 +4474,13 @@
         <v>28940</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,7 +4536,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4566,13 +4548,13 @@
         <v>6720</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -4581,13 +4563,13 @@
         <v>3692</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -4596,13 +4578,13 @@
         <v>10412</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4599,13 @@
         <v>23631</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -4632,13 +4614,13 @@
         <v>31723</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M20" s="7">
         <v>52</v>
@@ -4647,13 +4629,13 @@
         <v>55354</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,7 +4691,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4721,13 +4703,13 @@
         <v>27954</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -4736,13 +4718,13 @@
         <v>4616</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -4751,13 +4733,13 @@
         <v>32570</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4754,13 @@
         <v>37797</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H23" s="7">
         <v>51</v>
@@ -4787,13 +4769,13 @@
         <v>54036</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M23" s="7">
         <v>87</v>
@@ -4802,13 +4784,13 @@
         <v>91833</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,7 +4846,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4876,13 +4858,13 @@
         <v>2217</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -4891,13 +4873,13 @@
         <v>3164</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4906,13 +4888,13 @@
         <v>5381</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,10 +4909,10 @@
         <v>21796</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>24</v>
@@ -4942,10 +4924,10 @@
         <v>22149</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>24</v>
@@ -4957,13 +4939,13 @@
         <v>43945</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,13 +5013,13 @@
         <v>62196</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -5046,13 +5028,13 @@
         <v>13446</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M28" s="7">
         <v>73</v>
@@ -5061,13 +5043,13 @@
         <v>75642</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5064,13 @@
         <v>224776</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H29" s="7">
         <v>228</v>
@@ -5097,13 +5079,13 @@
         <v>241959</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M29" s="7">
         <v>441</v>
@@ -5112,13 +5094,13 @@
         <v>466735</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,7 +5156,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5198,7 +5180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA16723-27FC-4A2F-9A05-E610F0CAA52C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E48E10-E0F6-4CAB-9869-DE6F397510D1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5215,7 +5197,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5322,13 +5304,13 @@
         <v>4509</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5337,13 +5319,13 @@
         <v>6150</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -5352,13 +5334,13 @@
         <v>10660</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5355,13 @@
         <v>14697</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -5388,13 +5370,13 @@
         <v>24038</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -5403,13 +5385,13 @@
         <v>38734</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,13 +5459,13 @@
         <v>3067</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5492,13 +5474,13 @@
         <v>1986</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -5507,13 +5489,13 @@
         <v>5054</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5510,13 @@
         <v>15290</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -5543,10 +5525,10 @@
         <v>13892</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -5558,13 +5540,13 @@
         <v>29181</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,13 +5614,13 @@
         <v>3479</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5653,7 +5635,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5662,13 +5644,13 @@
         <v>3479</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5665,13 @@
         <v>19752</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -5701,7 +5683,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5713,13 +5695,13 @@
         <v>33633</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,7 +5757,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5787,13 +5769,13 @@
         <v>5480</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5802,13 +5784,13 @@
         <v>2823</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5817,13 +5799,13 @@
         <v>8303</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5820,13 @@
         <v>32912</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5853,13 +5835,13 @@
         <v>33548</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -5868,13 +5850,13 @@
         <v>66460</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,7 +5912,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5942,13 +5924,13 @@
         <v>2836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5957,13 +5939,13 @@
         <v>1053</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5972,13 +5954,13 @@
         <v>3889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +5975,13 @@
         <v>7288</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -6008,10 +5990,10 @@
         <v>3480</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -6023,13 +6005,13 @@
         <v>10768</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,7 +6067,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6097,13 +6079,13 @@
         <v>3963</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6118,7 +6100,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -6127,13 +6109,13 @@
         <v>3963</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6130,13 @@
         <v>23454</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -6166,7 +6148,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -6178,13 +6160,13 @@
         <v>59914</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,7 +6222,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6252,13 +6234,13 @@
         <v>4238</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6267,13 +6249,13 @@
         <v>1026</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -6282,13 +6264,13 @@
         <v>5264</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,13 +6285,13 @@
         <v>22198</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H23" s="7">
         <v>24</v>
@@ -6318,10 +6300,10 @@
         <v>26381</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>24</v>
@@ -6333,13 +6315,13 @@
         <v>48579</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,7 +6377,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6407,13 +6389,13 @@
         <v>1970</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>393</v>
+        <v>286</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6422,13 +6404,13 @@
         <v>1080</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>395</v>
+        <v>320</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -6437,13 +6419,13 @@
         <v>3050</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,10 +6440,10 @@
         <v>32636</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>400</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>24</v>
@@ -6473,7 +6455,7 @@
         <v>25656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>402</v>
+        <v>328</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>403</v>
@@ -6705,7 +6687,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -6729,7 +6711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E56F5CF-9AD2-49C2-97C4-E029B4A30098}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302FA80F-22D9-4197-877A-A81529658D0F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7306,7 +7288,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7461,7 +7443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7616,7 +7598,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7649,7 +7631,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -7697,7 +7679,7 @@
         <v>512</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -7771,7 +7753,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7783,13 +7765,13 @@
         <v>7028</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>516</v>
+        <v>357</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>517</v>
+        <v>35</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -7798,13 +7780,13 @@
         <v>5738</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -7813,13 +7795,13 @@
         <v>12766</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7834,13 +7816,13 @@
         <v>37364</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>524</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>525</v>
+        <v>366</v>
       </c>
       <c r="H23" s="7">
         <v>68</v>
@@ -7849,13 +7831,13 @@
         <v>48849</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="M23" s="7">
         <v>106</v>
@@ -7864,13 +7846,13 @@
         <v>86212</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7926,7 +7908,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7938,13 +7920,13 @@
         <v>8556</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -7953,13 +7935,13 @@
         <v>3845</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -7968,13 +7950,13 @@
         <v>12401</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7989,13 +7971,13 @@
         <v>21155</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H26" s="7">
         <v>41</v>
@@ -8004,13 +7986,13 @@
         <v>30612</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M26" s="7">
         <v>59</v>
@@ -8019,13 +8001,13 @@
         <v>51768</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8093,13 +8075,13 @@
         <v>48374</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="H28" s="7">
         <v>22</v>
@@ -8108,13 +8090,13 @@
         <v>17291</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>554</v>
+        <v>43</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="M28" s="7">
         <v>63</v>
@@ -8123,13 +8105,13 @@
         <v>65666</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8144,13 +8126,13 @@
         <v>155408</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H29" s="7">
         <v>337</v>
@@ -8159,13 +8141,13 @@
         <v>214986</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>564</v>
+        <v>51</v>
       </c>
       <c r="M29" s="7">
         <v>507</v>
@@ -8174,13 +8156,13 @@
         <v>370393</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8236,7 +8218,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15B_3_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B8CE67F-68A1-4AA8-AFF3-633A5F7EE865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C45EB64-F506-4028-85A9-D19249EDD5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{91AE3A99-0A74-466C-8DB2-2872AFB6BD75}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E62C1220-ED0F-4903-BB79-11087C3DA854}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="564">
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>51,16%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -95,10 +95,10 @@
     <t>29,02%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,10 +107,10 @@
     <t>48,84%</t>
   </si>
   <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>70,98%</t>
   </si>
   <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -140,13 +140,13 @@
     <t>21,88%</t>
   </si>
   <si>
-    <t>62,72%</t>
+    <t>56,27%</t>
   </si>
   <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>32,27%</t>
+    <t>34,6%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -155,13 +155,13 @@
     <t>78,12%</t>
   </si>
   <si>
-    <t>37,28%</t>
+    <t>43,73%</t>
   </si>
   <si>
     <t>88,34%</t>
   </si>
   <si>
-    <t>67,73%</t>
+    <t>65,4%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -173,7 +173,7 @@
     <t>4,71%</t>
   </si>
   <si>
-    <t>40,64%</t>
+    <t>39,02%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -182,16 +182,16 @@
     <t>13,11%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
   </si>
   <si>
     <t>83,87%</t>
   </si>
   <si>
-    <t>59,36%</t>
+    <t>60,98%</t>
   </si>
   <si>
     <t>95,29%</t>
@@ -203,10 +203,10 @@
     <t>86,89%</t>
   </si>
   <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -215,10 +215,10 @@
     <t>27,12%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -227,19 +227,19 @@
     <t>17,5%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
   </si>
   <si>
     <t>72,88%</t>
   </si>
   <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -248,10 +248,10 @@
     <t>82,5%</t>
   </si>
   <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -260,1126 +260,1120 @@
     <t>42,94%</t>
   </si>
   <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el trabajo en el último año en 2012 (Tasa respuesta: 7,9%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el trabajo en el último año en 2016 (Tasa respuesta: 5,53%)</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
     <t>11,91%</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
   </si>
   <si>
     <t>88,09%</t>
   </si>
   <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el trabajo en el último año en 2012 (Tasa respuesta: 7,9%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
+  </si>
+  <si>
+    <t>12,44%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
   </si>
   <si>
     <t>96,25%</t>
   </si>
   <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el trabajo en el último año en 2016 (Tasa respuesta: 5,53%)</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
     <t>89,95%</t>
   </si>
   <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
   </si>
   <si>
     <t>22,98%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
   </si>
   <si>
     <t>3,9%</t>
@@ -1388,19 +1382,19 @@
     <t>9,27%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
   </si>
   <si>
     <t>77,02%</t>
   </si>
   <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
   </si>
   <si>
     <t>96,1%</t>
@@ -1409,322 +1403,334 @@
     <t>90,73%</t>
   </si>
   <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>22,57%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>16,59%</t>
   </si>
   <si>
-    <t>8,01%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
   </si>
   <si>
     <t>30,81%</t>
   </si>
   <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
   </si>
   <si>
     <t>69,19%</t>
   </si>
   <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>97,68%</t>
   </si>
   <si>
     <t>80,67%</t>
   </si>
   <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>23,74%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>12,0%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>76,26%</t>
   </si>
   <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
   </si>
   <si>
     <t>92,56%</t>
   </si>
   <si>
-    <t>88,0%</t>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
   </si>
 </sst>
 </file>
@@ -2136,7 +2142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748A19F4-9779-4D98-ACC0-49376BA72285}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDF051F-D180-49CB-8E7C-0DE81110B235}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3667,7 +3673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73736D61-8D48-4373-BC6C-35BA53A87911}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD123F6-EC20-43CB-A0C7-C003B79A9A8A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3931,10 +3937,10 @@
         <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3949,7 +3955,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3958,13 +3964,13 @@
         <v>2841</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3985,13 @@
         <v>29187</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -3997,7 +4003,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -4009,13 +4015,13 @@
         <v>59443</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,10 +4092,10 @@
         <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4104,7 +4110,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -4113,13 +4119,13 @@
         <v>12427</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,10 +4143,10 @@
         <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -4152,7 +4158,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -4164,13 +4170,13 @@
         <v>81337</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4244,13 @@
         <v>6006</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4253,13 +4259,13 @@
         <v>1975</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -4268,13 +4274,13 @@
         <v>7981</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4295,13 @@
         <v>62798</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -4304,10 +4310,10 @@
         <v>43085</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>24</v>
@@ -4319,13 +4325,13 @@
         <v>105883</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4399,13 @@
         <v>4030</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4414,7 +4420,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4423,13 +4429,13 @@
         <v>4031</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4450,13 @@
         <v>9142</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -4462,7 +4468,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -4474,13 +4480,13 @@
         <v>28940</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,13 +4554,13 @@
         <v>6720</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -4563,13 +4569,13 @@
         <v>3692</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -4578,13 +4584,13 @@
         <v>10412</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4605,13 @@
         <v>23631</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -4614,13 +4620,13 @@
         <v>31723</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M20" s="7">
         <v>52</v>
@@ -4629,13 +4635,13 @@
         <v>55354</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4709,13 @@
         <v>27954</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -4718,13 +4724,13 @@
         <v>4616</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -4733,13 +4739,13 @@
         <v>32570</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4760,13 @@
         <v>37797</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H23" s="7">
         <v>51</v>
@@ -4769,13 +4775,13 @@
         <v>54036</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M23" s="7">
         <v>87</v>
@@ -4784,13 +4790,13 @@
         <v>91833</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4864,13 @@
         <v>2217</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -4873,13 +4879,13 @@
         <v>3164</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>255</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4888,13 +4894,13 @@
         <v>5381</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,10 +4915,10 @@
         <v>21796</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>24</v>
@@ -4924,10 +4930,10 @@
         <v>22149</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>24</v>
@@ -4939,13 +4945,13 @@
         <v>43945</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5019,13 @@
         <v>62196</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -5028,13 +5034,13 @@
         <v>13446</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M28" s="7">
         <v>73</v>
@@ -5043,13 +5049,13 @@
         <v>75642</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5070,13 @@
         <v>224776</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H29" s="7">
         <v>228</v>
@@ -5079,13 +5085,13 @@
         <v>241959</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M29" s="7">
         <v>441</v>
@@ -5094,13 +5100,13 @@
         <v>466735</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,7 +5186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E48E10-E0F6-4CAB-9869-DE6F397510D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F29F8DA-7D64-4D59-A7CF-393C57ACA00E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5197,7 +5203,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5304,13 +5310,13 @@
         <v>4509</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5319,13 +5325,13 @@
         <v>6150</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -5334,13 +5340,13 @@
         <v>10660</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5361,13 @@
         <v>14697</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -5370,13 +5376,13 @@
         <v>24038</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -5385,13 +5391,13 @@
         <v>38734</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5465,13 @@
         <v>3067</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5474,13 +5480,13 @@
         <v>1986</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -5489,13 +5495,13 @@
         <v>5054</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5516,13 @@
         <v>15290</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -5525,10 +5531,10 @@
         <v>13892</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -5540,13 +5546,13 @@
         <v>29181</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5620,13 @@
         <v>3479</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5635,7 +5641,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5644,13 +5650,13 @@
         <v>3479</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,13 +5671,13 @@
         <v>19752</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -5683,7 +5689,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5695,13 +5701,13 @@
         <v>33633</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5775,13 @@
         <v>5480</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5784,13 +5790,13 @@
         <v>2823</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5799,13 +5805,13 @@
         <v>8303</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,13 +5826,13 @@
         <v>32912</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5835,13 +5841,13 @@
         <v>33548</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -5850,13 +5856,13 @@
         <v>66460</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5930,13 @@
         <v>2836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5939,13 +5945,13 @@
         <v>1053</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5954,13 +5960,13 @@
         <v>3889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5981,13 @@
         <v>7288</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>360</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -5990,10 +5996,10 @@
         <v>3480</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -6005,13 +6011,13 @@
         <v>10768</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,13 +6085,13 @@
         <v>3963</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6100,7 +6106,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -6109,13 +6115,13 @@
         <v>3963</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,13 +6136,13 @@
         <v>23454</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -6148,7 +6154,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -6160,13 +6166,13 @@
         <v>59914</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,13 +6240,13 @@
         <v>4238</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6249,13 +6255,13 @@
         <v>1026</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -6264,13 +6270,13 @@
         <v>5264</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,13 +6291,13 @@
         <v>22198</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H23" s="7">
         <v>24</v>
@@ -6300,10 +6306,10 @@
         <v>26381</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>24</v>
@@ -6315,13 +6321,13 @@
         <v>48579</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,13 +6395,13 @@
         <v>1970</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>286</v>
+        <v>393</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6404,13 +6410,13 @@
         <v>1080</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -6419,13 +6425,13 @@
         <v>3050</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,10 +6446,10 @@
         <v>32636</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>399</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>24</v>
@@ -6455,10 +6461,10 @@
         <v>25656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>24</v>
@@ -6470,13 +6476,13 @@
         <v>58292</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,13 +6550,13 @@
         <v>29542</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -6559,13 +6565,13 @@
         <v>14118</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M28" s="7">
         <v>42</v>
@@ -6574,13 +6580,13 @@
         <v>43660</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,13 +6601,13 @@
         <v>168227</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="H29" s="7">
         <v>158</v>
@@ -6610,13 +6616,13 @@
         <v>177335</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M29" s="7">
         <v>321</v>
@@ -6625,13 +6631,13 @@
         <v>345563</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,7 +6717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302FA80F-22D9-4197-877A-A81529658D0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E227FB1-56BB-4249-88D0-50C17A3484C9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6728,7 +6734,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6835,13 +6841,13 @@
         <v>2916</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -6850,13 +6856,13 @@
         <v>2820</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -6865,13 +6871,13 @@
         <v>5736</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6886,13 +6892,13 @@
         <v>20531</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -6901,13 +6907,13 @@
         <v>25241</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M5" s="7">
         <v>78</v>
@@ -6916,13 +6922,13 @@
         <v>45772</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6990,13 +6996,13 @@
         <v>5660</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -7011,7 +7017,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -7020,13 +7026,13 @@
         <v>5660</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,13 +7047,13 @@
         <v>18973</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H8" s="7">
         <v>48</v>
@@ -7059,7 +7065,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -7071,13 +7077,13 @@
         <v>55419</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,13 +7151,13 @@
         <v>4927</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>459</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -7160,13 +7166,13 @@
         <v>3507</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>461</v>
+        <v>290</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -7175,13 +7181,13 @@
         <v>8434</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,13 +7202,13 @@
         <v>16905</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>469</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -7211,13 +7217,13 @@
         <v>25495</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -7226,13 +7232,13 @@
         <v>42400</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,13 +7306,13 @@
         <v>10738</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -7315,13 +7321,13 @@
         <v>796</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -7330,13 +7336,13 @@
         <v>11535</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,13 +7357,13 @@
         <v>14055</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -7366,10 +7372,10 @@
         <v>19246</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>24</v>
@@ -7381,13 +7387,13 @@
         <v>33301</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,13 +7461,13 @@
         <v>1003</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7476,7 +7482,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7485,13 +7491,13 @@
         <v>1003</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7506,10 +7512,10 @@
         <v>7043</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
@@ -7524,7 +7530,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -7536,10 +7542,10 @@
         <v>7697</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>24</v>
@@ -7610,13 +7616,13 @@
         <v>7546</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -7625,13 +7631,13 @@
         <v>584</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>500</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -7640,13 +7646,13 @@
         <v>8130</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7661,13 +7667,13 @@
         <v>19381</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H20" s="7">
         <v>62</v>
@@ -7676,10 +7682,10 @@
         <v>28444</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>508</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -7691,13 +7697,13 @@
         <v>47824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7765,13 +7771,13 @@
         <v>7028</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>357</v>
+        <v>512</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>35</v>
+        <v>513</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -7780,13 +7786,13 @@
         <v>5738</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -7795,13 +7801,13 @@
         <v>12766</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7816,13 +7822,13 @@
         <v>37364</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>520</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>366</v>
+        <v>521</v>
       </c>
       <c r="H23" s="7">
         <v>68</v>
@@ -8093,10 +8099,10 @@
         <v>549</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>43</v>
+        <v>550</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M28" s="7">
         <v>63</v>
@@ -8105,13 +8111,13 @@
         <v>65666</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8126,13 +8132,13 @@
         <v>155408</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H29" s="7">
         <v>337</v>
@@ -8141,13 +8147,13 @@
         <v>214986</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>51</v>
+        <v>560</v>
       </c>
       <c r="M29" s="7">
         <v>507</v>
@@ -8156,13 +8162,13 @@
         <v>370393</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P15B_3_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C45EB64-F506-4028-85A9-D19249EDD5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CF80220-670E-495F-8944-FE3B4D860EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E62C1220-ED0F-4903-BB79-11087C3DA854}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D016D464-6873-4037-A459-5ED82EEC3AF5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="571">
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -524,7 +524,52 @@
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2012 (Tasa respuesta: 7,9%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
   </si>
   <si>
     <t>8,87%</t>
@@ -599,52 +644,34 @@
     <t>91,95%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
   </si>
   <si>
     <t>30,6%</t>
@@ -806,9 +833,6 @@
     <t>38,53%</t>
   </si>
   <si>
-    <t>10,91%</t>
-  </si>
-  <si>
     <t>2,41%</t>
   </si>
   <si>
@@ -824,9 +848,6 @@
     <t>61,47%</t>
   </si>
   <si>
-    <t>89,09%</t>
-  </si>
-  <si>
     <t>76,53%</t>
   </si>
   <si>
@@ -1313,424 +1334,424 @@
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>96,1%</t>
   </si>
   <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
   </si>
   <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
   </si>
 </sst>
 </file>
@@ -2142,7 +2163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDF051F-D180-49CB-8E7C-0DE81110B235}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F5A0FD-89E5-4CEE-9B14-867B3316A73B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3673,7 +3694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD123F6-EC20-43CB-A0C7-C003B79A9A8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60E3319-18D6-4A77-AC15-B420172C5859}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3791,43 +3812,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4041</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1974</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>6015</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,43 +3863,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D5" s="7">
+        <v>32996</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="I5" s="7">
+        <v>25649</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="N5" s="7">
+        <v>58645</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,43 +3914,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D6" s="7">
+        <v>37037</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I6" s="7">
+        <v>27623</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="N6" s="7">
+        <v>64660</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3973,13 @@
         <v>2841</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3955,7 +3994,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3964,13 +4003,13 @@
         <v>2841</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,10 +4024,10 @@
         <v>29187</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -4003,7 +4042,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -4015,13 +4054,13 @@
         <v>59443</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,10 +4131,10 @@
         <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4110,7 +4149,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -4119,13 +4158,13 @@
         <v>12427</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,10 +4182,10 @@
         <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -4158,7 +4197,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -4170,13 +4209,13 @@
         <v>81337</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,49 +4277,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>6006</v>
+        <v>1965</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M13" s="7">
         <v>2</v>
       </c>
-      <c r="I13" s="7">
-        <v>1975</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="N13" s="7">
+        <v>1966</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M13" s="7">
-        <v>8</v>
-      </c>
-      <c r="N13" s="7">
-        <v>7981</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,49 +4328,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7">
-        <v>62798</v>
+        <v>29802</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I14" s="7">
-        <v>43085</v>
+        <v>17436</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="7">
+        <v>42</v>
+      </c>
+      <c r="N14" s="7">
+        <v>47238</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="M14" s="7">
-        <v>97</v>
-      </c>
-      <c r="N14" s="7">
-        <v>105883</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,10 +4379,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7">
-        <v>68804</v>
+        <v>31767</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -4355,10 +4394,10 @@
         <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I15" s="7">
-        <v>45060</v>
+        <v>17436</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -4370,10 +4409,10 @@
         <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="N15" s="7">
-        <v>113864</v>
+        <v>49204</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -4399,13 +4438,13 @@
         <v>4030</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4420,7 +4459,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4429,13 +4468,13 @@
         <v>4031</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4489,13 @@
         <v>9142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -4468,7 +4507,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -4480,13 +4519,13 @@
         <v>28940</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4593,13 @@
         <v>6720</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -4569,13 +4608,13 @@
         <v>3692</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -4584,13 +4623,13 @@
         <v>10412</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4644,13 @@
         <v>23631</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -4620,13 +4659,13 @@
         <v>31723</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="M20" s="7">
         <v>52</v>
@@ -4635,13 +4674,13 @@
         <v>55354</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4748,13 @@
         <v>27954</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -4724,13 +4763,13 @@
         <v>4616</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -4739,13 +4778,13 @@
         <v>32570</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4799,13 @@
         <v>37797</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="H23" s="7">
         <v>51</v>
@@ -4775,13 +4814,13 @@
         <v>54036</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="M23" s="7">
         <v>87</v>
@@ -4790,13 +4829,13 @@
         <v>91833</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4903,13 @@
         <v>2217</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -4879,13 +4918,13 @@
         <v>3164</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4894,13 +4933,13 @@
         <v>5381</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,10 +4954,10 @@
         <v>21796</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>24</v>
@@ -4930,10 +4969,10 @@
         <v>22149</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>24</v>
@@ -4945,13 +4984,13 @@
         <v>43945</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>261</v>
+        <v>169</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5058,13 @@
         <v>62196</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -5034,13 +5073,13 @@
         <v>13446</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="M28" s="7">
         <v>73</v>
@@ -5049,13 +5088,13 @@
         <v>75642</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5109,13 @@
         <v>224776</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H29" s="7">
         <v>228</v>
@@ -5085,13 +5124,13 @@
         <v>241959</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M29" s="7">
         <v>441</v>
@@ -5100,13 +5139,13 @@
         <v>466735</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,7 +5225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F29F8DA-7D64-4D59-A7CF-393C57ACA00E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB5BD17-5FD7-48E3-B411-018ABDFA6AC7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5203,7 +5242,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5310,13 +5349,13 @@
         <v>4509</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5325,13 +5364,13 @@
         <v>6150</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -5340,13 +5379,13 @@
         <v>10660</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5400,13 @@
         <v>14697</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -5376,13 +5415,13 @@
         <v>24038</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -5391,13 +5430,13 @@
         <v>38734</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5504,13 @@
         <v>3067</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5480,13 +5519,13 @@
         <v>1986</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -5495,13 +5534,13 @@
         <v>5054</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5555,13 @@
         <v>15290</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -5531,10 +5570,10 @@
         <v>13892</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -5546,13 +5585,13 @@
         <v>29181</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,13 +5659,13 @@
         <v>3479</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5641,7 +5680,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5650,13 +5689,13 @@
         <v>3479</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,13 +5710,13 @@
         <v>19752</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -5689,7 +5728,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5701,13 +5740,13 @@
         <v>33633</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5814,13 @@
         <v>5480</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5790,13 +5829,13 @@
         <v>2823</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5805,13 +5844,13 @@
         <v>8303</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5865,13 @@
         <v>32912</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5841,13 +5880,13 @@
         <v>33548</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -5856,13 +5895,13 @@
         <v>66460</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5969,13 @@
         <v>2836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5945,13 +5984,13 @@
         <v>1053</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5960,13 +5999,13 @@
         <v>3889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +6020,13 @@
         <v>7288</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -5996,10 +6035,10 @@
         <v>3480</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -6011,13 +6050,13 @@
         <v>10768</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,13 +6124,13 @@
         <v>3963</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6106,7 +6145,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -6115,13 +6154,13 @@
         <v>3963</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,13 +6175,13 @@
         <v>23454</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -6154,7 +6193,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -6166,13 +6205,13 @@
         <v>59914</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,13 +6279,13 @@
         <v>4238</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6255,13 +6294,13 @@
         <v>1026</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -6270,13 +6309,13 @@
         <v>5264</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,13 +6330,13 @@
         <v>22198</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="H23" s="7">
         <v>24</v>
@@ -6306,10 +6345,10 @@
         <v>26381</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>24</v>
@@ -6321,13 +6360,13 @@
         <v>48579</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,13 +6434,13 @@
         <v>1970</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6410,13 +6449,13 @@
         <v>1080</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -6425,13 +6464,13 @@
         <v>3050</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,10 +6485,10 @@
         <v>32636</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>24</v>
@@ -6461,10 +6500,10 @@
         <v>25656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>24</v>
@@ -6476,13 +6515,13 @@
         <v>58292</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6589,13 @@
         <v>29542</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -6565,13 +6604,13 @@
         <v>14118</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="M28" s="7">
         <v>42</v>
@@ -6580,13 +6619,13 @@
         <v>43660</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,13 +6640,13 @@
         <v>168227</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="H29" s="7">
         <v>158</v>
@@ -6616,13 +6655,13 @@
         <v>177335</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="M29" s="7">
         <v>321</v>
@@ -6631,13 +6670,13 @@
         <v>345563</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,7 +6756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E227FB1-56BB-4249-88D0-50C17A3484C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6B771F-EBC5-4ACD-B1A1-5F2F2D420A98}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6734,7 +6773,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6838,46 +6877,46 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>2916</v>
+        <v>3323</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>2820</v>
+        <v>2908</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>5736</v>
+        <v>6232</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,46 +6928,46 @@
         <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>20531</v>
+        <v>24769</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
       </c>
       <c r="I5" s="7">
-        <v>25241</v>
+        <v>26069</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="M5" s="7">
         <v>78</v>
       </c>
       <c r="N5" s="7">
-        <v>45772</v>
+        <v>50837</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,7 +6979,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>23447</v>
+        <v>28092</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -6955,7 +6994,7 @@
         <v>59</v>
       </c>
       <c r="I6" s="7">
-        <v>28061</v>
+        <v>28977</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -6970,7 +7009,7 @@
         <v>88</v>
       </c>
       <c r="N6" s="7">
-        <v>51508</v>
+        <v>57069</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -6993,16 +7032,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>5660</v>
+        <v>5653</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>442</v>
+        <v>358</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -7017,22 +7056,22 @@
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>5660</v>
+        <v>5653</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,28 +7083,28 @@
         <v>15</v>
       </c>
       <c r="D8" s="7">
-        <v>18973</v>
+        <v>18690</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>449</v>
+        <v>365</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="H8" s="7">
         <v>48</v>
       </c>
       <c r="I8" s="7">
-        <v>36446</v>
+        <v>33363</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -7074,16 +7113,16 @@
         <v>63</v>
       </c>
       <c r="N8" s="7">
-        <v>55419</v>
+        <v>52052</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,7 +7134,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="7">
-        <v>24633</v>
+        <v>24343</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -7110,7 +7149,7 @@
         <v>48</v>
       </c>
       <c r="I9" s="7">
-        <v>36446</v>
+        <v>33363</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -7125,7 +7164,7 @@
         <v>67</v>
       </c>
       <c r="N9" s="7">
-        <v>61079</v>
+        <v>57705</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -7148,46 +7187,46 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>4927</v>
+        <v>4831</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>321</v>
+        <v>462</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>3507</v>
+        <v>3293</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>8434</v>
+        <v>8124</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7199,46 +7238,46 @@
         <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>16905</v>
+        <v>16501</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>328</v>
+        <v>472</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
       </c>
       <c r="I11" s="7">
-        <v>25495</v>
+        <v>23503</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>300</v>
+        <v>473</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
       </c>
       <c r="N11" s="7">
-        <v>42400</v>
+        <v>40004</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7250,7 +7289,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="7">
-        <v>21832</v>
+        <v>21332</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -7265,7 +7304,7 @@
         <v>43</v>
       </c>
       <c r="I12" s="7">
-        <v>29002</v>
+        <v>26796</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -7280,7 +7319,7 @@
         <v>71</v>
       </c>
       <c r="N12" s="7">
-        <v>50834</v>
+        <v>48128</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -7303,46 +7342,46 @@
         <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>10738</v>
+        <v>10313</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>796</v>
+        <v>703</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>11535</v>
+        <v>11017</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7354,28 +7393,28 @@
         <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>14055</v>
+        <v>13438</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
       </c>
       <c r="I14" s="7">
-        <v>19246</v>
+        <v>17509</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>24</v>
@@ -7384,16 +7423,16 @@
         <v>36</v>
       </c>
       <c r="N14" s="7">
-        <v>33301</v>
+        <v>30947</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,7 +7444,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="7">
-        <v>24793</v>
+        <v>23751</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -7420,7 +7459,7 @@
         <v>25</v>
       </c>
       <c r="I15" s="7">
-        <v>20042</v>
+        <v>18212</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -7435,7 +7474,7 @@
         <v>43</v>
       </c>
       <c r="N15" s="7">
-        <v>44836</v>
+        <v>41964</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -7458,16 +7497,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1003</v>
+        <v>913</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7482,22 +7521,22 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>1003</v>
+        <v>913</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,13 +7548,13 @@
         <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>7043</v>
+        <v>6200</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
@@ -7524,13 +7563,13 @@
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>654</v>
+        <v>540</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -7539,13 +7578,13 @@
         <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>7697</v>
+        <v>6740</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>24</v>
@@ -7560,7 +7599,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>8046</v>
+        <v>7113</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
@@ -7575,7 +7614,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>654</v>
+        <v>540</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -7590,7 +7629,7 @@
         <v>10</v>
       </c>
       <c r="N18" s="7">
-        <v>8700</v>
+        <v>7653</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -7613,46 +7652,46 @@
         <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>7546</v>
+        <v>7385</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>584</v>
+        <v>543</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
       </c>
       <c r="N19" s="7">
-        <v>8130</v>
+        <v>7928</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7664,28 +7703,28 @@
         <v>32</v>
       </c>
       <c r="D20" s="7">
-        <v>19381</v>
+        <v>18648</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="H20" s="7">
         <v>62</v>
       </c>
       <c r="I20" s="7">
-        <v>28444</v>
+        <v>26454</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -7694,16 +7733,16 @@
         <v>94</v>
       </c>
       <c r="N20" s="7">
-        <v>47824</v>
+        <v>45102</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7715,7 +7754,7 @@
         <v>40</v>
       </c>
       <c r="D21" s="7">
-        <v>26927</v>
+        <v>26033</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -7730,7 +7769,7 @@
         <v>63</v>
       </c>
       <c r="I21" s="7">
-        <v>29028</v>
+        <v>26997</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -7745,7 +7784,7 @@
         <v>103</v>
       </c>
       <c r="N21" s="7">
-        <v>55954</v>
+        <v>53030</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -7768,46 +7807,46 @@
         <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>7028</v>
+        <v>6893</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>222</v>
+        <v>521</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
       </c>
       <c r="I22" s="7">
-        <v>5738</v>
+        <v>5342</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
       </c>
       <c r="N22" s="7">
-        <v>12766</v>
+        <v>12235</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7819,46 +7858,46 @@
         <v>38</v>
       </c>
       <c r="D23" s="7">
-        <v>37364</v>
+        <v>36547</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>231</v>
+        <v>530</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="H23" s="7">
         <v>68</v>
       </c>
       <c r="I23" s="7">
-        <v>48849</v>
+        <v>44764</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="M23" s="7">
         <v>106</v>
       </c>
       <c r="N23" s="7">
-        <v>86212</v>
+        <v>81311</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7870,7 +7909,7 @@
         <v>44</v>
       </c>
       <c r="D24" s="7">
-        <v>44392</v>
+        <v>43440</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>26</v>
@@ -7885,7 +7924,7 @@
         <v>76</v>
       </c>
       <c r="I24" s="7">
-        <v>54587</v>
+        <v>50106</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>26</v>
@@ -7900,7 +7939,7 @@
         <v>120</v>
       </c>
       <c r="N24" s="7">
-        <v>98978</v>
+        <v>93546</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>26</v>
@@ -7923,46 +7962,46 @@
         <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>8556</v>
+        <v>7176</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>3845</v>
+        <v>2982</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>531</v>
+        <v>228</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
       </c>
       <c r="N25" s="7">
-        <v>12401</v>
+        <v>10158</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7974,46 +8013,46 @@
         <v>18</v>
       </c>
       <c r="D26" s="7">
-        <v>21155</v>
+        <v>17850</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="H26" s="7">
         <v>41</v>
       </c>
       <c r="I26" s="7">
-        <v>30612</v>
+        <v>25630</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>540</v>
+        <v>237</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="M26" s="7">
         <v>59</v>
       </c>
       <c r="N26" s="7">
-        <v>51768</v>
+        <v>43480</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8025,7 +8064,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="7">
-        <v>29711</v>
+        <v>25026</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>26</v>
@@ -8040,7 +8079,7 @@
         <v>44</v>
       </c>
       <c r="I27" s="7">
-        <v>34457</v>
+        <v>28612</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>26</v>
@@ -8055,7 +8094,7 @@
         <v>68</v>
       </c>
       <c r="N27" s="7">
-        <v>64169</v>
+        <v>53638</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>26</v>
@@ -8078,46 +8117,46 @@
         <v>41</v>
       </c>
       <c r="D28" s="7">
-        <v>48374</v>
+        <v>46487</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="H28" s="7">
         <v>22</v>
       </c>
       <c r="I28" s="7">
-        <v>17291</v>
+        <v>15772</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="M28" s="7">
         <v>63</v>
       </c>
       <c r="N28" s="7">
-        <v>65666</v>
+        <v>62259</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>552</v>
+        <v>420</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8129,46 +8168,46 @@
         <v>170</v>
       </c>
       <c r="D29" s="7">
-        <v>155408</v>
+        <v>152643</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="H29" s="7">
         <v>337</v>
       </c>
       <c r="I29" s="7">
-        <v>214986</v>
+        <v>197831</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="M29" s="7">
         <v>507</v>
       </c>
       <c r="N29" s="7">
-        <v>370393</v>
+        <v>350474</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>561</v>
+        <v>428</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8180,7 +8219,7 @@
         <v>211</v>
       </c>
       <c r="D30" s="7">
-        <v>203782</v>
+        <v>199130</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>26</v>
@@ -8195,7 +8234,7 @@
         <v>359</v>
       </c>
       <c r="I30" s="7">
-        <v>232277</v>
+        <v>213603</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>26</v>
@@ -8210,7 +8249,7 @@
         <v>570</v>
       </c>
       <c r="N30" s="7">
-        <v>436059</v>
+        <v>412733</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>26</v>
